--- a/src/main/resources/excel/vipTable_org.x1.logic.vip.data.VipTable.xlsx
+++ b/src/main/resources/excel/vipTable_org.x1.logic.vip.data.VipTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppdashi\Desktop\excel转json\ExcelToJson\数据结构\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\javaDemo\x1\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,79 +27,72 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShopDis</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MoneyTreeAdd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ActivityAdd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>vip等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>商城折扣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>摇钱树加成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>活动加成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>shopCapacity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城容量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>shopDis</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>moneyTreeAdd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>activityAdd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇钱树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,6 +106,21 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -139,11 +147,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -461,14 +472,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -487,16 +500,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -516,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -622,7 +635,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
